--- a/api/Board/QnaComment_API.xlsx
+++ b/api/Board/QnaComment_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AEE026-5D8B-4674-8584-A6AC0FDE8905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D152C5-772A-47B1-967B-61B90EA9E898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="게시판 댓글 전체 조회" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="91">
   <si>
     <t>Title</t>
   </si>
@@ -739,12 +739,248 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +1089,22 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -979,7 +1231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1304,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1090,6 +1346,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,21 +1397,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,6 +1407,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1468,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -1484,95 +1746,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -1621,64 +1883,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -1912,87 +2174,113 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:8" ht="305" customHeight="1">
-      <c r="A29" s="30" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1">
+      <c r="A29" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="C29" s="67" t="s">
+        <v>83</v>
+      </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="F29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="A31" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="A32" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="A33" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" ht="298" customHeight="1">
+      <c r="A34" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="29"/>
@@ -2537,8 +2825,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -2551,6 +2838,7 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A33:H33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2582,95 +2870,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -2843,66 +3131,66 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8" ht="177" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
@@ -3135,28 +3423,28 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="221" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1"/>
     <row r="46" spans="1:8">
@@ -3230,24 +3518,24 @@
       <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="318.5" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="12"/>
@@ -3601,7 +3889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3617,95 +3905,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3754,64 +4042,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -3894,28 +4182,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12"/>
@@ -4038,24 +4326,24 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="16"/>
@@ -4659,6 +4947,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -4668,13 +4963,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/QnaComment_API.xlsx
+++ b/api/Board/QnaComment_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D152C5-772A-47B1-967B-61B90EA9E898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A12E80-B492-46CA-A952-465342F5AB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="게시판 댓글 전체 조회" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>Title</t>
   </si>
@@ -149,9 +149,6 @@
     <t>작성 내용</t>
   </si>
   <si>
-    <t>작성일자</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>작성자</t>
-  </si>
-  <si>
-    <t>created_by</t>
   </si>
   <si>
     <t>Response Sample</t>
@@ -583,6 +577,368 @@
   </si>
   <si>
     <t>Qna DB Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "comment": "test",
+      "is_anonymous": "true",
+      "likes": 1,
+      "qna_id": 1
+   }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/qna/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/qna/comment/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/qna/comment/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QnaComment (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QnaComment (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,7 +950,7 @@
       "id": 4,
       "comment": "test",
       "created_at": "2021-02-12T01:21:39",
-      "created_by": "AdminServer",
+      "writer": "tester",
       "is_anonymous": true,
       "likes": 1,
       "qna_id": 1
@@ -614,365 +970,15 @@
    "result_code" : "OK",
    "description" : "OK",
    "data" : {
-      "comment": "test",
-      "is_anonymous": "true",
-      "likes": 1,
-      "qna_id": 1
-   }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/board/qna/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
       "id": 4,
       "comment": "test",
       "created_at": "2021-02-12T01:21:39",
-      "created_by": "AdminServer",
+      "writer": "tester",
       "is_anonymous": true,
       "likes": 1,
       "qna_id": 1
    }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/board/qna/comment/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/board/qna/comment/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>QnaComment (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>QnaComment (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pagination </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_pages</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_elements</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_elements</t>
-  </si>
-  <si>
-    <t>default 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,17 +1314,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,6 +1349,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,10 +1419,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1730,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -1746,95 +1758,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -1883,64 +1895,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="A12" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="A14" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2022,14 +2034,14 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>21</v>
@@ -2040,7 +2052,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -2055,16 +2067,16 @@
         <v>21</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
@@ -2079,32 +2091,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
-        <v>37</v>
+      <c r="A23" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
@@ -2114,53 +2126,53 @@
       <c r="G24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>40</v>
+      <c r="H24" s="70" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="G25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>35</v>
@@ -2169,12 +2181,12 @@
         <v>21</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -2186,11 +2198,11 @@
     </row>
     <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="67" t="s">
-        <v>83</v>
+      <c r="C29" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -2200,15 +2212,15 @@
       <c r="G29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="68" t="s">
-        <v>85</v>
+      <c r="C30" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -2218,15 +2230,15 @@
       <c r="G30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="67"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" s="30"/>
-      <c r="C31" s="68" t="s">
-        <v>87</v>
+      <c r="C31" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
@@ -2236,15 +2248,15 @@
       <c r="G31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="67"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" s="30"/>
-      <c r="C32" s="68" t="s">
-        <v>89</v>
+      <c r="C32" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -2254,33 +2266,33 @@
       <c r="G32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="1:8" ht="298" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-    </row>
-    <row r="34" spans="1:8" ht="298" customHeight="1">
-      <c r="A34" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="29"/>
@@ -2854,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -2870,95 +2882,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="B3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3058,11 +3070,11 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
@@ -3078,47 +3090,47 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="G14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>35</v>
@@ -3127,70 +3139,70 @@
         <v>21</v>
       </c>
       <c r="H16" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="56" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:8" ht="177" customHeight="1">
-      <c r="A19" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="A19" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
@@ -3290,7 +3302,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.5" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
@@ -3305,16 +3317,16 @@
         <v>21</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8"/>
@@ -3329,32 +3341,32 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="19" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>37</v>
+      <c r="A29" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8"/>
@@ -3365,52 +3377,52 @@
         <v>21</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="G31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="27" t="s">
         <v>35</v>
@@ -3419,32 +3431,32 @@
         <v>21</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="A34" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="221" customHeight="1">
-      <c r="A35" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
+      <c r="A35" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1"/>
     <row r="46" spans="1:8">
@@ -3518,24 +3530,24 @@
       <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
     </row>
     <row r="54" spans="1:8" ht="318.5" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="12"/>
@@ -3905,95 +3917,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="B3" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -4038,68 +4050,68 @@
         <v>21</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="A11" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -4142,7 +4154,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4160,7 +4172,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4178,32 +4190,32 @@
         <v>31</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="A19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="A20" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12"/>
@@ -4326,24 +4338,24 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="16"/>
@@ -4947,13 +4959,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -4963,6 +4968,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/QnaComment_API.xlsx
+++ b/api/Board/QnaComment_API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A12E80-B492-46CA-A952-465342F5AB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FBBE60-EB7F-4FDD-A237-E38EA98930EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -580,20 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "comment": "test",
-      "is_anonymous": "true",
-      "likes": 1,
-      "qna_id": 1
-   }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost:8080/board/qna/comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -977,6 +963,21 @@
       "is_anonymous": true,
       "likes": 1,
       "qna_id": 1
+   }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "comment": "test",
+      "is_anonymous": "true",
+      "likes": 1,
+      "free_id": 1,
+      "user_id": 1
    }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1320,6 +1321,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1419,12 +1426,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1758,95 +1759,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -1895,64 +1896,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2091,8 +2092,8 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="69" t="s">
-        <v>88</v>
+      <c r="A23" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
@@ -2116,7 +2117,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
@@ -2126,8 +2127,8 @@
       <c r="G24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="70" t="s">
-        <v>89</v>
+      <c r="H24" s="35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2186,7 +2187,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -2198,11 +2199,11 @@
     </row>
     <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -2216,11 +2217,11 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -2234,11 +2235,11 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
@@ -2252,11 +2253,11 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -2267,32 +2268,32 @@
         <v>21</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" ht="298" customHeight="1">
-      <c r="A34" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="29"/>
@@ -2866,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -2882,95 +2883,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3143,66 +3144,66 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
+      <c r="A18" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8" ht="177" customHeight="1">
-      <c r="A19" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
+      <c r="A19" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
@@ -3341,8 +3342,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="19" customHeight="1">
-      <c r="A29" s="69" t="s">
-        <v>88</v>
+      <c r="A29" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
@@ -3366,7 +3367,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8"/>
@@ -3377,7 +3378,7 @@
         <v>21</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3435,28 +3436,28 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" ht="221" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="A35" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1"/>
     <row r="46" spans="1:8">
@@ -3530,24 +3531,24 @@
       <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" ht="318.5" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="12"/>
@@ -3917,95 +3918,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -4054,64 +4055,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="A11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -4194,28 +4195,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12"/>
@@ -4338,24 +4339,24 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="16"/>
@@ -4959,6 +4960,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -4968,13 +4976,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/QnaComment_API.xlsx
+++ b/api/Board/QnaComment_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FBBE60-EB7F-4FDD-A237-E38EA98930EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C535F3A3-17A6-4F71-B123-1EB9D2ACF84D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="게시판 댓글 전체 조회" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="95">
   <si>
     <t>Title</t>
   </si>
@@ -925,6 +925,51 @@
   </si>
   <si>
     <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user db index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User DB Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id": 4,
+      "comment": "test",
+      "created_at": "2021-02-12T01:21:39",
+      "writer": "tester",
+      "is_anonymous": true,
+      "likes": 1,
+      "qna_id": 1,
+      "user_id": 1
+   }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "comment": "test",
+      "is_anonymous": "true",
+      "likes": 1,
+      "qna_id": 1,
+      "user_id": 1
+   }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,45 +984,14 @@
       "writer": "tester",
       "is_anonymous": true,
       "likes": 1,
-      "qna_id": 1
+      "qna_id": 1,
+      "user_id": 1
    }],
    "pagination" : {
       "total_pages" : 10,
       "total_elements" : 100,
       "current_page" : 3,
       "current_elements" : 10
-   }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id": 4,
-      "comment": "test",
-      "created_at": "2021-02-12T01:21:39",
-      "writer": "tester",
-      "is_anonymous": true,
-      "likes": 1,
-      "qna_id": 1
-   }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "comment": "test",
-      "is_anonymous": "true",
-      "likes": 1,
-      "free_id": 1,
-      "user_id": 1
    }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1238,7 +1252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,23 +1322,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -1759,95 +1770,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -1896,64 +1907,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="45"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2092,7 +2103,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="8"/>
@@ -2127,7 +2138,7 @@
       <c r="G24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="32" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2186,137 +2197,186 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1">
+      <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="32" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G30" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="31" t="s">
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="33" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="31" t="s">
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="33" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G32" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="33" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G33" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H33" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="47" t="s">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-    </row>
-    <row r="34" spans="1:8" ht="298" customHeight="1">
-      <c r="A34" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" ht="327" customHeight="1">
+      <c r="A35" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="382.5" customHeight="1"/>
-    <row r="41" spans="1:8">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" ht="382.5" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2327,134 +2387,74 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="12"/>
@@ -2838,7 +2838,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -2851,7 +2850,8 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -2883,95 +2883,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3144,114 +3144,116 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="58" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
+      <c r="A19" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
-    </row>
-    <row r="19" spans="1:8" ht="177" customHeight="1">
-      <c r="A19" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="47" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" ht="188.5" customHeight="1">
+      <c r="A20" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F23" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H23" s="28" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -3264,12 +3266,12 @@
         <v>21</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -3279,287 +3281,229 @@
         <v>26</v>
       </c>
       <c r="G25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A27" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="28" spans="1:8" ht="16" customHeight="1">
+      <c r="A28" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:8" ht="19" customHeight="1">
+      <c r="A29" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>87</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8" t="s">
-        <v>40</v>
+      <c r="A30" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="23" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F32" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G32" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H32" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="8" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="8" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="23" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C34" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F34" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G34" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H34" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="47" t="s">
+    <row r="35" spans="1:8" ht="17" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-    </row>
-    <row r="35" spans="1:8" ht="221" customHeight="1">
-      <c r="A35" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="225.5" customHeight="1">
+      <c r="A37" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1"/>
-    <row r="46" spans="1:8">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-    </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="29"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-    </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="29"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-    </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-    </row>
-    <row r="54" spans="1:8" ht="318.5" customHeight="1">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
+    <row r="47" spans="1:8" ht="17" customHeight="1"/>
+    <row r="49" spans="1:8" ht="18" customHeight="1"/>
+    <row r="51" spans="1:8" ht="18" customHeight="1"/>
+    <row r="54" spans="1:8" ht="318.5" customHeight="1"/>
     <row r="62" spans="1:8">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
@@ -3871,9 +3815,7 @@
       <c r="H94" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:H54"/>
+  <mergeCells count="14">
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -3881,18 +3823,18 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3A039392-055F-41DA-91B1-F0EA51FC2A4E}"/>
-    <hyperlink ref="A18" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
+    <hyperlink ref="A19" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3918,95 +3860,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -4055,64 +3997,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -4195,28 +4137,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12"/>
@@ -4339,24 +4281,24 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="16"/>
@@ -4960,13 +4902,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -4976,6 +4911,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/QnaComment_API.xlsx
+++ b/api/Board/QnaComment_API.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C535F3A3-17A6-4F71-B123-1EB9D2ACF84D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAF44A-AFB8-4819-A072-11F40186FCD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="게시판 댓글 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="게시판 댓글 작성" sheetId="3" r:id="rId2"/>
-    <sheet name="게시판 댓글 삭제" sheetId="5" r:id="rId3"/>
+    <sheet name="게시판 댓글 좋아요" sheetId="6" r:id="rId1"/>
+    <sheet name="게시판 댓글 전체 조회" sheetId="1" r:id="rId2"/>
+    <sheet name="게시판 댓글 작성" sheetId="3" r:id="rId3"/>
+    <sheet name="게시판 댓글 삭제" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="99">
   <si>
     <t>Title</t>
   </si>
@@ -994,6 +995,72 @@
       "current_elements" : 10
    }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QnaComment (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/qna/comment/likes/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/qna/comment/like/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,8 +1405,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1376,56 +1450,59 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1751,11 +1828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B7385-904F-4FA4-B31D-34D1A485271C}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -1770,95 +1847,929 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="47"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.5" customHeight="1">
+      <c r="A20" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19" customHeight="1">
+      <c r="A29" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" ht="224" customHeight="1">
+      <c r="A30" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="35" ht="17" customHeight="1"/>
+    <row r="37" ht="225.5" customHeight="1"/>
+    <row r="45" ht="17" customHeight="1"/>
+    <row r="47" ht="17" customHeight="1"/>
+    <row r="49" spans="1:8" ht="18" customHeight="1"/>
+    <row r="51" spans="1:8" ht="18" customHeight="1"/>
+    <row r="54" spans="1:8" ht="318.5" customHeight="1"/>
+    <row r="62" spans="1:8">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{96486ECC-4987-4765-A2AC-A3E20FF8038F}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{55564CB4-4609-4720-BF09-4B73ECEC8A50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -1907,64 +2818,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2303,28 +3214,28 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" ht="327" customHeight="1">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="62"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="10"/>
@@ -2838,20 +3749,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2863,7 +3774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -2883,95 +3794,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3164,66 +4075,66 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" ht="17" customHeight="1">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" ht="188.5" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="28" t="s">
@@ -3476,28 +4387,28 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
     </row>
     <row r="37" spans="1:8" ht="225.5" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1"/>
     <row r="47" spans="1:8" ht="17" customHeight="1"/>
@@ -3816,6 +4727,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -3823,13 +4741,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3840,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -3860,95 +4771,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3997,64 +4908,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -4137,28 +5048,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12"/>
@@ -4281,24 +5192,24 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="16"/>
@@ -4902,6 +5813,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -4911,13 +5829,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
